--- a/scaling calc.xlsx
+++ b/scaling calc.xlsx
@@ -1,27 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Dropbox\Dropbox\Work\Battery Test2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Dropbox\Dropbox\Work\BatteryTest2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{492D80A3-537E-4B07-AF28-1E3F6DD5AECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C7AB07-9C5C-46BF-AECB-8A2BBEB031CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="450" windowWidth="19200" windowHeight="15555" xr2:uid="{56789099-5B4D-4E3A-B517-6BEAFA0C0F9D}"/>
+    <workbookView xWindow="9465" yWindow="4590" windowWidth="28800" windowHeight="15555" xr2:uid="{56789099-5B4D-4E3A-B517-6BEAFA0C0F9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$2:$E$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$F$2:$F$7</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$I$2:$I$4</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$J$2:$J$4</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>vraw</t>
   </si>
@@ -52,7 +48,16 @@
     <t>i</t>
   </si>
   <si>
-    <t>frac</t>
+    <t>varduino</t>
+  </si>
+  <si>
+    <t>vsensor</t>
+  </si>
+  <si>
+    <t>sensor gain</t>
+  </si>
+  <si>
+    <t>fractional delta</t>
   </si>
 </sst>
 </file>
@@ -490,7 +495,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.3871006709935318E-2"/>
+          <c:y val="3.8787878787878788E-2"/>
+          <c:w val="0.924381042327868"/>
+          <c:h val="0.91709510856597476"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -499,7 +514,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -577,7 +592,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$7</c:f>
+              <c:f>Sheet1!$H$2:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -604,7 +619,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$7</c:f>
+              <c:f>Sheet1!$I$2:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -714,7 +729,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$4</c:f>
+              <c:f>Sheet1!$L$2:$L$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -732,7 +747,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$4</c:f>
+              <c:f>Sheet1!$M$2:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2061,7 +2076,7 @@
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -2091,16 +2106,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2425,15 +2440,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD473615-BF0A-404E-9045-9275457FB29D}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2447,16 +2466,25 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2467,24 +2495,32 @@
         <v>131</v>
       </c>
       <c r="E2">
+        <f>D2*1.1/1024</f>
+        <v>0.14072265625000002</v>
+      </c>
+      <c r="F2">
+        <f>E2/(3300/1300)</f>
+        <v>5.543619791666668E-2</v>
+      </c>
+      <c r="H2">
         <f>D2/$D$2-1</f>
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>125</v>
       </c>
-      <c r="I2">
-        <f>H2/$H$2-1</f>
+      <c r="L2">
+        <f>K2/$K$2-1</f>
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>330.5</v>
       </c>
@@ -2495,21 +2531,33 @@
         <v>150</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E7" si="0">D3/$D$2-1</f>
+        <f t="shared" ref="E3:E7" si="0">D3*1.1/1024</f>
+        <v>0.1611328125</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F7" si="1">E3/(3300/1300)</f>
+        <v>6.34765625E-2</v>
+      </c>
+      <c r="G3">
+        <f>(F3-$F$2)/I3</f>
+        <v>5.3602430555555469E-3</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="2">D3/$D$2-1</f>
         <v>0.14503816793893121</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>1.5</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>207</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I4" si="1">H3/$H$2-1</f>
+      <c r="L3">
+        <f t="shared" ref="L3:L4" si="3">K3/$K$2-1</f>
         <v>0.65599999999999992</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>736.8</v>
       </c>
@@ -2521,23 +2569,35 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
+        <v>0.17402343750000002</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>6.8554687500000017E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G7" si="4">(F4-$F$2)/I4</f>
+        <v>5.4660373263888907E-3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
         <v>0.23664122137404586</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>2.4</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>252</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
+      <c r="L4">
+        <f t="shared" si="3"/>
         <v>1.016</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>10.4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>210</v>
       </c>
@@ -2549,38 +2609,75 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
+        <v>0.21376953125000001</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>8.4212239583333334E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>5.3288966049382692E-3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
         <v>0.51908396946564883</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>5.4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>218</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
+        <v>0.23417968750000001</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>9.2252604166666682E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>5.494986007462687E-3</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
         <v>0.66412213740458026</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>6.7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>268</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
+        <v>0.28789062500000001</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.11341145833333334</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>5.4693641902515723E-3</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
         <v>1.0458015267175571</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>10.6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>